--- a/calculadora-investimento/VizzuPlan_Calculadora_Investimento.xlsx
+++ b/calculadora-investimento/VizzuPlan_Calculadora_Investimento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbsin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\OneDrive\Documentos\GitHub\vizzuplan-home\calculadora-investimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C349609-1C41-4959-8A2B-C78D0032859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1375BF-8882-4B7D-9E9C-8D7C5795F00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2865" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções" sheetId="1" r:id="rId1"/>
@@ -811,24 +811,17 @@
     <xf numFmtId="44" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="27" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -836,17 +829,24 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Ênfase3" xfId="5" builtinId="38"/>
@@ -2254,38 +2254,38 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="100" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" hidden="1"/>
+    <col min="2" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2305,112 +2305,112 @@
       <selection activeCell="D32" activeCellId="5" sqref="D11 D12 D16 D17 D18 D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" hidden="1" customWidth="1"/>
     <col min="7" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" hidden="1"/>
+    <col min="17" max="17" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="52" t="s">
+    <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-    </row>
-    <row r="11" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="39" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+    </row>
+    <row r="11" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="33">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="39" t="s">
+    <row r="12" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="34">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="45" t="s">
+    <row r="13" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="3">
         <f>D11*0.3</f>
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="42" t="s">
+    <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-    </row>
-    <row r="16" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="46" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="35">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="46" t="s">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="37">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="50" t="s">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="17">
         <f>FV(D18,D17*12,D16*-1)</f>
         <v>5445.5254595290435</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="48" t="s">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="18">
         <f>D19*D12</f>
         <v>32.673152757174265</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>2</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>32.673152757174265</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
         <v>5</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>100.53229679818516</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>10</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>291.94105503620665</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
         <v>20</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>1350.2380801164968</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
         <v>30</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>5186.6035860056581</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="19" t="s">
         <v>24</v>
       </c>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="D31" s="19"/>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
         <v>26</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="22" t="s">
         <v>27</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="21"/>
       <c r="C41" s="22" t="s">
         <v>36</v>
@@ -2619,29 +2619,29 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="10">
@@ -2675,14 +2675,14 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>37</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A20" si="0">B3&amp;"-"&amp;C3</f>
         <v>Conservador-PAPEL</v>
@@ -2711,7 +2711,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-TIJOLO</v>
@@ -2726,7 +2726,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HÍBRIDOS</v>
@@ -2741,7 +2741,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
@@ -2756,7 +2756,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-DESENVOLVIMENTO</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-PAPEL</v>
@@ -2801,7 +2801,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-TIJOLO</v>
@@ -2816,7 +2816,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HÍBRIDOS</v>
@@ -2831,7 +2831,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
@@ -2846,7 +2846,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-DESENVOLVIMENTO</v>
@@ -2861,7 +2861,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIAS</v>
@@ -2876,7 +2876,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-PAPEL</v>
@@ -2891,7 +2891,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-TIJOLO</v>
@@ -2906,7 +2906,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HÍBRIDOS</v>
@@ -2921,7 +2921,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
@@ -2936,7 +2936,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-DESENVOLVIMENTO</v>
@@ -2951,7 +2951,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HOTELARIAS</v>
